--- a/xlsx/country_comparison/convergence_support_mean.xlsx
+++ b/xlsx/country_comparison/convergence_support_mean.xlsx
@@ -421,34 +421,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.503072748970674</v>
+        <v>0.442750425603343</v>
       </c>
       <c r="C2" t="n">
-        <v>0.411128900552985</v>
+        <v>0.427770959983221</v>
       </c>
       <c r="D2" t="n">
-        <v>0.712832815805195</v>
+        <v>0.682784598129731</v>
       </c>
       <c r="E2" t="n">
-        <v>0.165016501650165</v>
+        <v>0.332823959880661</v>
       </c>
       <c r="F2" t="n">
-        <v>0.421114539393874</v>
+        <v>0.678278197936458</v>
       </c>
       <c r="G2" t="n">
-        <v>0.738752066127625</v>
+        <v>0.699697377059292</v>
       </c>
       <c r="H2" t="n">
-        <v>0.45300187217669</v>
+        <v>0.544986275384153</v>
       </c>
       <c r="I2" t="n">
-        <v>0.372794990899857</v>
+        <v>0.222874933745579</v>
       </c>
       <c r="J2" t="n">
-        <v>0.240366035656076</v>
+        <v>0.271004099328238</v>
       </c>
       <c r="K2" t="n">
-        <v>0.206367091861374</v>
+        <v>0.0372129879903173</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/convergence_support_mean.xlsx
+++ b/xlsx/country_comparison/convergence_support_mean.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">$ bold('All')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ bold('Europe')</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -26,30 +32,29 @@
     <t xml:space="preserve">Italy</t>
   </si>
   <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Governments should actively cooperate to
-have all countries converge in terms of
-GDP per capita by the end of the century"</t>
+    <t xml:space="preserve">USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Governments should actively cooperate to have
+all countries converge in terms of GDP per capita by the end of the century"</t>
   </si>
 </sst>
 </file>
@@ -415,40 +420,52 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.442750425603343</v>
+        <v>0.32196046663394</v>
       </c>
       <c r="C2" t="n">
-        <v>0.427770959983221</v>
+        <v>0.479490054725407</v>
       </c>
       <c r="D2" t="n">
-        <v>0.682784598129731</v>
+        <v>0.427820074709171</v>
       </c>
       <c r="E2" t="n">
-        <v>0.332823959880661</v>
+        <v>0.438318967668979</v>
       </c>
       <c r="F2" t="n">
-        <v>0.678278197936458</v>
+        <v>0.668411508086919</v>
       </c>
       <c r="G2" t="n">
-        <v>0.699697377059292</v>
+        <v>0.632848128364641</v>
       </c>
       <c r="H2" t="n">
-        <v>0.544986275384153</v>
+        <v>0.591109445477673</v>
       </c>
       <c r="I2" t="n">
-        <v>0.222874933745579</v>
+        <v>0.266693139442141</v>
       </c>
       <c r="J2" t="n">
-        <v>0.271004099328238</v>
+        <v>0.267896912017432</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0372129879903173</v>
+        <v>0.33038414815667</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.704547003704061</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.105007964498736</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/convergence_support_mean.xlsx
+++ b/xlsx/country_comparison/convergence_support_mean.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -426,13 +429,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.32196046663394</v>
+        <v>0.356454541046749</v>
       </c>
       <c r="C2" t="n">
         <v>0.479490054725407</v>
@@ -462,9 +468,12 @@
         <v>0.33038414815667</v>
       </c>
       <c r="L2" t="n">
+        <v>0.568114473992829</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.704547003704061</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.105007964498736</v>
       </c>
     </row>

--- a/xlsx/country_comparison/convergence_support_mean.xlsx
+++ b/xlsx/country_comparison/convergence_support_mean.xlsx
@@ -56,8 +56,8 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">"Governments should actively cooperate to have
-all countries converge in terms of GDP per capita by the end of the century"</t>
+    <t xml:space="preserve">"Governments should actively cooperate to have all countries
+converge in terms of GDP per capita by the end of the century"</t>
   </si>
 </sst>
 </file>
@@ -438,7 +438,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.356454541046749</v>
+        <v>0.354477546162626</v>
       </c>
       <c r="C2" t="n">
         <v>0.479490054725407</v>
@@ -465,16 +465,16 @@
         <v>0.267896912017432</v>
       </c>
       <c r="K2" t="n">
-        <v>0.33038414815667</v>
+        <v>0.330419625213169</v>
       </c>
       <c r="L2" t="n">
-        <v>0.568114473992829</v>
+        <v>0.55583349037107</v>
       </c>
       <c r="M2" t="n">
         <v>0.704547003704061</v>
       </c>
       <c r="N2" t="n">
-        <v>0.105007964498736</v>
+        <v>0.105209195768849</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/convergence_support_mean.xlsx
+++ b/xlsx/country_comparison/convergence_support_mean.xlsx
@@ -438,43 +438,43 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.354477546162626</v>
+        <v>0.409920036069533</v>
       </c>
       <c r="C2" t="n">
-        <v>0.479490054725407</v>
+        <v>0.560620771757572</v>
       </c>
       <c r="D2" t="n">
-        <v>0.427820074709171</v>
+        <v>0.534523033462853</v>
       </c>
       <c r="E2" t="n">
-        <v>0.438318967668979</v>
+        <v>0.515083493490671</v>
       </c>
       <c r="F2" t="n">
-        <v>0.668411508086919</v>
+        <v>0.749968017929011</v>
       </c>
       <c r="G2" t="n">
-        <v>0.632848128364641</v>
+        <v>0.69441259681887</v>
       </c>
       <c r="H2" t="n">
-        <v>0.591109445477673</v>
+        <v>0.684679095793903</v>
       </c>
       <c r="I2" t="n">
-        <v>0.266693139442141</v>
+        <v>0.31598974774536</v>
       </c>
       <c r="J2" t="n">
-        <v>0.267896912017432</v>
+        <v>0.312665570258618</v>
       </c>
       <c r="K2" t="n">
-        <v>0.330419625213169</v>
+        <v>0.407749263806461</v>
       </c>
       <c r="L2" t="n">
-        <v>0.55583349037107</v>
+        <v>0.555767853656013</v>
       </c>
       <c r="M2" t="n">
-        <v>0.704547003704061</v>
+        <v>0.856324037927879</v>
       </c>
       <c r="N2" t="n">
-        <v>0.105209195768849</v>
+        <v>0.12481239914949</v>
       </c>
     </row>
   </sheetData>
